--- a/covered_warrant/date_price_of_issuance.xlsx
+++ b/covered_warrant/date_price_of_issuance.xlsx
@@ -1,39 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiepdang\PycharmProjects\DataAnalytics\covered_warrant\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="79">
-  <si>
-    <t>Ngày phát hành</t>
-  </si>
-  <si>
-    <t>Giá phát hành</t>
-  </si>
-  <si>
-    <t>Ngày GDĐT</t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>Chứng quyền</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="70">
+  <si>
+    <t>ISSUANCE_DATE</t>
+  </si>
+  <si>
+    <t>ISSUANCE_PRICE</t>
+  </si>
+  <si>
+    <t>FIRST_TRADING_DATE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>CW</t>
   </si>
   <si>
     <t>CACB2101</t>
@@ -57,21 +52,18 @@
     <t>CHDB2102</t>
   </si>
   <si>
-    <t>CHPG2109</t>
-  </si>
-  <si>
     <t>CHPG2110</t>
   </si>
   <si>
     <t>CHPG2111</t>
   </si>
   <si>
+    <t>CHPG2112</t>
+  </si>
+  <si>
     <t>CHPG2113</t>
   </si>
   <si>
-    <t>CKDH2103</t>
-  </si>
-  <si>
     <t>CKDH2104</t>
   </si>
   <si>
@@ -81,15 +73,9 @@
     <t>CKDH2106</t>
   </si>
   <si>
-    <t>CMBB2103</t>
-  </si>
-  <si>
     <t>CMBB2104</t>
   </si>
   <si>
-    <t>CMBB2105</t>
-  </si>
-  <si>
     <t>CMSN2104</t>
   </si>
   <si>
@@ -105,9 +91,6 @@
     <t>CMWG2104</t>
   </si>
   <si>
-    <t>CMWG2106</t>
-  </si>
-  <si>
     <t>CMWG2107</t>
   </si>
   <si>
@@ -123,10 +106,7 @@
     <t>CPNJ2105</t>
   </si>
   <si>
-    <t>CSTB2105</t>
-  </si>
-  <si>
-    <t>CSTB2106</t>
+    <t>CPNJ2106</t>
   </si>
   <si>
     <t>CSTB2107</t>
@@ -150,7 +130,7 @@
     <t>CTCB2108</t>
   </si>
   <si>
-    <t>CPNJ2106</t>
+    <t>CTCB2109</t>
   </si>
   <si>
     <t>CVHM2107</t>
@@ -159,9 +139,6 @@
     <t>CVHM2108</t>
   </si>
   <si>
-    <t>CVHM2109</t>
-  </si>
-  <si>
     <t>CVHM2110</t>
   </si>
   <si>
@@ -177,10 +154,7 @@
     <t>CVJC2102</t>
   </si>
   <si>
-    <t>CVNM2106</t>
-  </si>
-  <si>
-    <t>CTCB2109</t>
+    <t>CVNM2107</t>
   </si>
   <si>
     <t>CVNM2108</t>
@@ -192,15 +166,9 @@
     <t>CVNM2110</t>
   </si>
   <si>
-    <t>CVPB2105</t>
-  </si>
-  <si>
     <t>CVPB2106</t>
   </si>
   <si>
-    <t>CVPB2107</t>
-  </si>
-  <si>
     <t>CVPB2108</t>
   </si>
   <si>
@@ -210,7 +178,7 @@
     <t>CVRE2106</t>
   </si>
   <si>
-    <t>CVNM2107</t>
+    <t>CVRE2107</t>
   </si>
   <si>
     <t>CVRE2108</t>
@@ -261,11 +229,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,14 +297,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -383,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,10 +375,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,7 +409,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,19 +584,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -655,131 +608,131 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44476</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
         <v>4000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>44411</v>
       </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3">
-        <v>3000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44413</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>3000</v>
       </c>
       <c r="D4" s="2">
+        <v>44413</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="2">
         <v>44432</v>
       </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
         <v>3500</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>44435</v>
       </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
         <v>2650</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>44456</v>
       </c>
-      <c r="E6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
         <v>1200</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>44438</v>
       </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8">
-        <v>4000</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44411</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>2400</v>
@@ -788,15 +741,15 @@
         <v>44432</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C10">
         <v>1700</v>
@@ -805,32 +758,32 @@
         <v>44435</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C11">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="D11" s="2">
         <v>44476</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>2400</v>
@@ -839,857 +792,704 @@
         <v>44474</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C13">
-        <v>1200</v>
+        <v>3500</v>
       </c>
       <c r="D13" s="2">
-        <v>44438</v>
+        <v>44448</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C14">
-        <v>3500</v>
+        <v>2150</v>
       </c>
       <c r="D14" s="2">
-        <v>44448</v>
+        <v>44456</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15">
-        <v>2150</v>
+        <v>2500</v>
       </c>
       <c r="D15" s="2">
-        <v>44456</v>
+        <v>44466</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C16">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="D16" s="2">
-        <v>44466</v>
+        <v>44448</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C17">
-        <v>3000</v>
+        <v>5200</v>
       </c>
       <c r="D17" s="2">
-        <v>44413</v>
+        <v>44432</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C18">
-        <v>2900</v>
+        <v>5000</v>
       </c>
       <c r="D18" s="2">
-        <v>44448</v>
+        <v>44456</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C19">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="D19" s="2">
-        <v>44466</v>
+        <v>44438</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20">
-        <v>5200</v>
+        <v>3100</v>
       </c>
       <c r="D20" s="2">
-        <v>44432</v>
+        <v>44469</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>2400</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44301</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21">
-        <v>1500</v>
-      </c>
-      <c r="D21" s="2">
-        <v>44438</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>6600</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44435</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22">
-        <v>3100</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23">
+        <v>3500</v>
+      </c>
+      <c r="D23" s="2">
         <v>44469</v>
       </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>4100</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44448</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
         <v>2400</v>
       </c>
-      <c r="D23" s="2">
-        <v>44301</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24">
-        <v>3000</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>44413</v>
       </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25">
-        <v>6600</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>3300</v>
+      </c>
+      <c r="D26" s="2">
         <v>44435</v>
       </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26">
-        <v>3500</v>
-      </c>
-      <c r="D26" s="2">
-        <v>44469</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <v>2600</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44435</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27">
-        <v>4100</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>2600</v>
+      </c>
+      <c r="D28" s="2">
         <v>44448</v>
       </c>
-      <c r="E27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28">
-        <v>2400</v>
-      </c>
-      <c r="D28" s="2">
-        <v>44413</v>
-      </c>
-      <c r="E28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <v>1820</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29">
-        <v>3300</v>
-      </c>
-      <c r="D29" s="2">
-        <v>44435</v>
-      </c>
-      <c r="E29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C30">
-        <v>5000</v>
+        <v>2300</v>
       </c>
       <c r="D30" s="2">
-        <v>44435</v>
+        <v>44474</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C31">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="D31" s="2">
-        <v>44411</v>
+        <v>44432</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C32">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D32" s="2">
-        <v>44438</v>
+        <v>44448</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C33">
-        <v>2600</v>
+        <v>1850</v>
       </c>
       <c r="D33" s="2">
-        <v>44448</v>
+        <v>44456</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C34">
-        <v>1820</v>
+        <v>5000</v>
       </c>
       <c r="D34" s="2">
-        <v>44456</v>
+        <v>44469</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C35">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="D35" s="2">
-        <v>44474</v>
+        <v>44469</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C36">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="D36" s="2">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C37">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="D37" s="2">
-        <v>44448</v>
+        <v>44456</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C38">
-        <v>1850</v>
+        <v>1800</v>
       </c>
       <c r="D38" s="2">
-        <v>44456</v>
+        <v>44474</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C39">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="D39" s="2">
-        <v>44469</v>
+        <v>44413</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C40">
-        <v>2600</v>
+        <v>3250</v>
       </c>
       <c r="D40" s="2">
-        <v>44469</v>
+        <v>44435</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>3900</v>
+        <v>3550</v>
       </c>
       <c r="D41" s="2">
         <v>44435</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C42">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="D42" s="2">
-        <v>44456</v>
+        <v>44438</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C43">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="D43" s="2">
-        <v>44466</v>
+        <v>44413</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C44">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="D44" s="2">
-        <v>44474</v>
+        <v>44432</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C45">
-        <v>2000</v>
+        <v>2150</v>
       </c>
       <c r="D45" s="2">
-        <v>44413</v>
+        <v>44435</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C46">
-        <v>3250</v>
+        <v>1400</v>
       </c>
       <c r="D46" s="2">
-        <v>44435</v>
+        <v>44456</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C47">
-        <v>3550</v>
+        <v>2500</v>
       </c>
       <c r="D47" s="2">
-        <v>44435</v>
+        <v>44448</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C48">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="D48" s="2">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C49">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="D49" s="2">
-        <v>44411</v>
+        <v>44432</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C50">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="D50" s="2">
-        <v>44474</v>
+        <v>44435</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C51">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="D51" s="2">
-        <v>44432</v>
+        <v>44413</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C52">
-        <v>2150</v>
+        <v>1450</v>
       </c>
       <c r="D52" s="2">
-        <v>44435</v>
+        <v>44456</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C53">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="D53" s="2">
-        <v>44456</v>
+        <v>44474</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54">
-        <v>1500</v>
-      </c>
-      <c r="D54" s="2">
-        <v>44438</v>
-      </c>
-      <c r="E54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55">
-        <v>2500</v>
-      </c>
-      <c r="D55" s="2">
-        <v>44448</v>
-      </c>
-      <c r="E55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56">
-        <v>5000</v>
-      </c>
-      <c r="D56" s="2">
-        <v>44469</v>
-      </c>
-      <c r="E56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57">
-        <v>2200</v>
-      </c>
-      <c r="D57" s="2">
-        <v>44474</v>
-      </c>
-      <c r="E57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58">
-        <v>1200</v>
-      </c>
-      <c r="D58" s="2">
-        <v>44432</v>
-      </c>
-      <c r="E58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59">
-        <v>2300</v>
-      </c>
-      <c r="D59" s="2">
-        <v>44435</v>
-      </c>
-      <c r="E59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60">
-        <v>1500</v>
-      </c>
-      <c r="D60" s="2">
-        <v>44413</v>
-      </c>
-      <c r="E60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61">
-        <v>1450</v>
-      </c>
-      <c r="D61" s="2">
-        <v>44456</v>
-      </c>
-      <c r="E61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62">
-        <v>1100</v>
-      </c>
-      <c r="D62" s="2">
-        <v>44474</v>
-      </c>
-      <c r="E62" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
